--- a/immune-gene-association/output/SAA/Masters/Example_Final_Tables.xlsx
+++ b/immune-gene-association/output/SAA/Masters/Example_Final_Tables.xlsx
@@ -6,8 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="API" sheetId="2" state="visible" r:id="rId1"/>
-    <sheet name="CAU" sheetId="3" state="visible" r:id="rId2"/>
+    <sheet name="POP1" sheetId="2" state="visible" r:id="rId1"/>
+    <sheet name="POP2" sheetId="3" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -3366,13 +3366,13 @@
         <v>1.91995198</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1.30671183925562</v>
+        <v>1.29846553102691</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.82098584765698</v>
+        <v>2.83890139354767</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.0000365564673578485</v>
+        <v>0.0000417788198375411</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0.00000522235247969264</v>
@@ -3454,13 +3454,13 @@
         <v>1.72837744</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>1.15859086083408</v>
+        <v>1.15290397562118</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.57838092469534</v>
+        <v>2.59109920537086</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.00134678459121419</v>
+        <v>0.00149642732357132</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0.000149642732357132</v>
@@ -3762,13 +3762,13 @@
         <v>1.69668452</v>
       </c>
       <c r="C59" t="n">
-        <v>1.18516837695035</v>
+        <v>1.17691694241317</v>
       </c>
       <c r="D59" t="n">
-        <v>2.42896993911966</v>
+        <v>2.44599959153024</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00114252463208433</v>
+        <v>0.00130574243666781</v>
       </c>
       <c r="F59" t="n">
         <v>0.000326435609166952</v>
@@ -3806,13 +3806,13 @@
         <v>1.71094704</v>
       </c>
       <c r="C60" t="n">
-        <v>1.1594653112243</v>
+        <v>1.15297297041056</v>
       </c>
       <c r="D60" t="n">
-        <v>2.52473251708904</v>
+        <v>2.53894917644285</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00196807983909443</v>
+        <v>0.00218675537677159</v>
       </c>
       <c r="F60" t="n">
         <v>0.000497482513657294</v>
@@ -4510,13 +4510,13 @@
         <v>0.5749246</v>
       </c>
       <c r="C76" t="n">
-        <v>0.38234023629124</v>
+        <v>0.378649954085721</v>
       </c>
       <c r="D76" t="n">
-        <v>0.864513499524489</v>
+        <v>0.872938956201037</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0054008822555663</v>
+        <v>0.00617243686350434</v>
       </c>
       <c r="F76" t="n">
         <v>0.00308621843175217</v>
@@ -4686,13 +4686,13 @@
         <v>0.51159644</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.333150986068129</v>
+        <v>0.329374975960078</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.785622520616374</v>
+        <v>0.794629029293339</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0.000260848407775482</v>
+        <v>0.000326060509719352</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>0.0000326060509719352</v>
@@ -4774,13 +4774,13 @@
         <v>0.60501816</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.424286323317904</v>
+        <v>0.421673769947399</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.862735737195843</v>
+        <v>0.868080966894022</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>0.00320907727254776</v>
+        <v>0.00356564141394195</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>0.00142625656557678</v>
@@ -5126,13 +5126,13 @@
         <v>1.67437108</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>1.17076568793109</v>
+        <v>1.15773701592881</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>2.39460256005161</v>
+        <v>2.42155038231304</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>0.00146679594465681</v>
+        <v>0.00183349493082101</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>0.000366698986164202</v>
@@ -5478,13 +5478,13 @@
         <v>0.37131466</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.185485324170605</v>
+        <v>0.183431787305971</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.74331798134122</v>
+        <v>0.751639499106748</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0.00196807983909443</v>
+        <v>0.00218675537677159</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>0.000656026613031476</v>
@@ -5566,13 +5566,13 @@
         <v>0.58193946</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.385566466885704</v>
+        <v>0.382123918381923</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.878327251434657</v>
+        <v>0.88624008813449</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>0.0054008822555663</v>
+        <v>0.00617243686350434</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>0.00260637090359728</v>
@@ -6631,13 +6631,13 @@
         <v>1.93301106</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.44067061721678</v>
+        <v>1.43471174792119</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.59360586204007</v>
+        <v>2.6043780316822</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.0000000072630596689992</v>
+        <v>0.0000000081709421276241</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0.0000000009078824586249</v>
@@ -8171,13 +8171,13 @@
         <v>0.6658078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.48969723203913</v>
+        <v>0.487205212235643</v>
       </c>
       <c r="D55" t="n">
-        <v>0.905253282104354</v>
+        <v>0.90988358787597</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00377218285367414</v>
+        <v>0.00424370571038341</v>
       </c>
       <c r="F55" t="n">
         <v>0.000943045713418535</v>
@@ -9227,13 +9227,13 @@
         <v>0.7675402</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.606553806001964</v>
+        <v>0.603916174646093</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.97125424453133</v>
+        <v>0.975496241612133</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>0.0219976075943395</v>
+        <v>0.024747308543632</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>0.00824910284787733</v>
